--- a/1,4-Benzoquinone/Eb-final dataset-BQ.xlsx
+++ b/1,4-Benzoquinone/Eb-final dataset-BQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\1,4-Benzoquinone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86FD01-4DBF-4333-9D64-9C1EDD65773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022810AC-B558-418B-A7C5-97699C2D5C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12975" yWindow="3525" windowWidth="18900" windowHeight="11775" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Eb</t>
   </si>
   <si>
-    <t>Original_Molecule</t>
-  </si>
-  <si>
     <t xml:space="preserve">Site1_Alpha HOMO-LUMO gap  </t>
   </si>
   <si>
@@ -427,6 +424,10 @@
   </si>
   <si>
     <t>H  OCH3  NH2  H</t>
+  </si>
+  <si>
+    <t>Molecules (the orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626355BE-9BE3-4D90-A659-7B372A32E8AD}">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,82 +874,82 @@
   <sheetData>
     <row r="1" spans="1:28" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>3</v>
@@ -959,7 +960,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
         <v>9.6280681300000008</v>
@@ -1045,7 +1046,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4">
         <v>10.78072609</v>
@@ -1131,7 +1132,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>20.138588989999999</v>
@@ -1217,7 +1218,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1303,7 +1304,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <v>13.087402559999999</v>
@@ -1389,7 +1390,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>11.93256772</v>
@@ -1475,7 +1476,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4">
         <v>10.78072609</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4">
         <v>11.93256772</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1733,7 +1734,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>13.087402559999999</v>
@@ -1819,7 +1820,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>9.6280681300000008</v>
@@ -1905,7 +1906,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>20.138588989999999</v>
@@ -1991,7 +1992,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
         <v>10.78072609</v>
@@ -2077,7 +2078,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4">
         <v>13.087402559999999</v>
@@ -2163,7 +2164,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4">
         <v>20.138588989999999</v>
@@ -2249,7 +2250,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4">
         <v>13.087402559999999</v>
@@ -2335,7 +2336,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -2421,7 +2422,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4">
         <v>20.138588989999999</v>
@@ -2507,7 +2508,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>13.087402559999999</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4">
         <v>20.138588989999999</v>
@@ -2679,7 +2680,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4">
         <v>20.138588989999999</v>
@@ -2765,7 +2766,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4">
         <v>10.78072609</v>
@@ -2851,7 +2852,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2937,7 +2938,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4">
         <v>13.087402559999999</v>
@@ -3023,7 +3024,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4">
         <v>20.138588989999999</v>
@@ -3109,7 +3110,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -3195,7 +3196,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>13.087402559999999</v>
@@ -3281,7 +3282,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4">
         <v>9.6280681300000008</v>
@@ -3367,7 +3368,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4">
         <v>20.138588989999999</v>
@@ -3453,7 +3454,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4">
         <v>13.087402559999999</v>
@@ -3539,7 +3540,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4">
         <v>20.138588989999999</v>
@@ -3711,7 +3712,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="4">
         <v>13.087402559999999</v>
@@ -3797,7 +3798,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4">
         <v>20.138588989999999</v>
@@ -3883,7 +3884,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="4">
         <v>10.78072609</v>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4">
         <v>13.087402559999999</v>
@@ -4141,7 +4142,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4">
         <v>20.138588989999999</v>
@@ -4227,7 +4228,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4">
         <v>10.78072609</v>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4">
         <v>13.087402559999999</v>
@@ -4399,7 +4400,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="4">
         <v>20.138588989999999</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4">
         <v>9.6280681300000008</v>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="4">
         <v>20.138588989999999</v>
@@ -4657,7 +4658,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="4">
         <v>9.6280681300000008</v>
@@ -4829,7 +4830,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="4">
         <v>11.93256772</v>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -5001,7 +5002,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="4">
         <v>10.78072609</v>
@@ -5087,7 +5088,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="4">
         <v>9.6280681300000008</v>
@@ -5173,7 +5174,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="4">
         <v>11.93256772</v>
@@ -5259,7 +5260,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="4">
         <v>9.6280681300000008</v>
@@ -5431,7 +5432,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="4">
         <v>11.93256772</v>
@@ -5517,7 +5518,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="4">
         <v>9.6280681300000008</v>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="4">
         <v>11.93256772</v>
@@ -5689,7 +5690,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4">
         <v>11.93256772</v>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="4">
         <v>10.78072609</v>
@@ -5861,7 +5862,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4">
         <v>9.6280681300000008</v>
@@ -5947,7 +5948,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="4">
         <v>11.93256772</v>
@@ -6033,7 +6034,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -6119,7 +6120,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" s="4">
         <v>10.78072609</v>
@@ -6205,7 +6206,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="4">
         <v>10.78072609</v>
@@ -6291,7 +6292,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="4">
         <v>11.93256772</v>
@@ -6377,7 +6378,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="4">
         <v>9.6280681300000008</v>
@@ -6463,7 +6464,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="4">
         <v>13.087402559999999</v>
@@ -6549,7 +6550,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4">
         <v>9.6280681300000008</v>
@@ -6635,7 +6636,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="4">
         <v>11.93256772</v>
@@ -6721,7 +6722,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="4">
         <v>11.93256772</v>
@@ -6807,7 +6808,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -6893,7 +6894,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" s="4">
         <v>11.93256772</v>
@@ -6979,7 +6980,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="4">
         <v>9.6280681300000008</v>
@@ -7065,7 +7066,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -7151,7 +7152,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4">
         <v>10.78072609</v>
@@ -7237,7 +7238,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="4">
         <v>13.087402559999999</v>
@@ -7323,7 +7324,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="4">
         <v>10.78072609</v>
@@ -7409,7 +7410,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="4">
         <v>10.78072609</v>
@@ -7495,7 +7496,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="4">
         <v>20.138588989999999</v>
@@ -7581,7 +7582,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -7667,7 +7668,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="4">
         <v>11.93256772</v>
@@ -7753,7 +7754,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -7839,7 +7840,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" s="4">
         <v>13.087402559999999</v>
@@ -7925,7 +7926,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" s="4">
         <v>9.6280681300000008</v>
@@ -8011,7 +8012,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4">
         <v>20.138588989999999</v>
@@ -8097,7 +8098,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="4">
         <v>10.78072609</v>
@@ -8183,7 +8184,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
@@ -8269,7 +8270,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="4">
         <v>20.138588989999999</v>
@@ -8355,7 +8356,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4">
         <v>20.138588989999999</v>
@@ -8441,7 +8442,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -8527,7 +8528,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4">
         <v>13.087402559999999</v>
@@ -8613,7 +8614,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4">
         <v>9.6280681300000008</v>
@@ -8699,7 +8700,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4">
         <v>20.138588989999999</v>
@@ -8785,7 +8786,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4">
         <v>13.087402559999999</v>
@@ -8871,7 +8872,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
@@ -8957,7 +8958,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="4">
         <v>20.138588989999999</v>
@@ -9043,7 +9044,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="4">
         <v>13.087402559999999</v>
@@ -9129,7 +9130,7 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="4">
         <v>20.138588989999999</v>
@@ -9215,7 +9216,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -9301,7 +9302,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B99" s="4">
         <v>10.78072609</v>
@@ -9387,7 +9388,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B100" s="4">
         <v>13.087402559999999</v>
@@ -9473,7 +9474,7 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="4">
         <v>20.138588989999999</v>
@@ -9559,7 +9560,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="4">
         <v>10.78072609</v>
@@ -9645,7 +9646,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" s="4">
         <v>13.087402559999999</v>
@@ -9731,7 +9732,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B104" s="4">
         <v>20.138588989999999</v>
@@ -9817,7 +9818,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B105" s="4">
         <v>9.6280681300000008</v>
@@ -9903,7 +9904,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" s="4">
         <v>20.138588989999999</v>
@@ -9989,7 +9990,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
